--- a/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>-32,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,77</t>
+          <t>-9,21; 3,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 5,59</t>
+          <t>-4,7; 5,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 9,39</t>
+          <t>-2,45; 10,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,11</t>
+          <t>-3,94; 9,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 9,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 229,54</t>
+          <t>-83,53; 166,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 439,33</t>
+          <t>-72,57; 290,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 101,23</t>
+          <t>-14,34; 103,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 41,32</t>
+          <t>-14,26; 52,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 29,58</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,93%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 2,41</t>
+          <t>-4,43; 4,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,6</t>
+          <t>-3,2; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,03</t>
+          <t>-5,36; 4,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 10,11</t>
+          <t>-1,49; 8,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 11,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 52,76</t>
+          <t>-43,97; 82,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 81,8</t>
+          <t>-48,13; 96,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 27,48</t>
+          <t>-25,75; 32,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 44,99</t>
+          <t>-5,12; 36,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 31,46</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>71,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 6,78</t>
+          <t>0,28; 12,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,03</t>
+          <t>-1,0; 9,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,98</t>
+          <t>-6,85; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 11,76</t>
+          <t>-1,37; 11,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 15,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 107,37</t>
+          <t>-1,8; 200,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 98,05</t>
+          <t>-11,52; 160,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 29,23</t>
+          <t>-23,83; 28,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 41,22</t>
+          <t>-3,97; 41,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 48,23</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,73</t>
+          <t>-2,07; 1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,93</t>
+          <t>-3,82; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,91</t>
+          <t>-6,35; 6,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 51,22</t>
+          <t>-34,47; 43,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 66,92</t>
+          <t>-57,7; 77,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 23,65</t>
+          <t>-31,3; 53,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 30,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 20,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 2,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 2,53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 4,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 7,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 48,18</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 59,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 25,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 29,03</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_3-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-32,63%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-2.124515533040819</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5299099307133972</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.835720895066042</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.605986622254927</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.3263429208487001</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1355494316830977</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2874618331745386</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.113594062714652</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; 3,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 5,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 10,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 9,85</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-83,53; 166,32</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-72,57; 290,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; 103,04</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 52,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.208416994755886</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.48058225708842</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.395733616544413</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.110127530957759</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.8352724079181896</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.7169241338674595</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1492148867108342</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1555496480725773</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.895820518211743</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.919678088863424</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.983605033444915</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.524827162095947</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.663233754311036</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.868229615753946</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9953663506077481</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5110126854646253</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,09%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 4,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 3,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,36; 4,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 8,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-43,97; 82,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-48,13; 96,63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-25,75; 32,48</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 36,52</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-0.03139844303072098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7203951695118039</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.201715161304733</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.807492449399896</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-0.003950499413379041</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1352286939347095</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.01189623992658258</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1500078021159033</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>71,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>52,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,29%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.425716887202886</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.037066994198187</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.126725075714942</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.202475489659695</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.4397321139867693</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4459927480308396</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2533282755905864</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.03731355631221563</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 12,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 9,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 5,99</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 11,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 200,48</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 160,52</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-23,83; 28,76</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 41,06</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.592619346412665</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.648471329284011</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.605362355086862</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.67664831635042</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.8285771916814113</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.141488784408052</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.324338524879854</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.371874308124178</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,53%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-12,48%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.83338626366803</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.076944767776265</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4506751338646808</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.129112147577791</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.7100379861628611</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.543728494842552</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01787486146440827</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1655404088454178</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 1,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 2,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 6,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-34,47; 43,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-57,7; 77,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-31,3; 53,07</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.2759886863501467</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.153919275382965</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.807538431954217</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.9480820901123674</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.01800890531687605</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1110033988787274</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2381541572852325</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.02829324840274269</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.77682654805161</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.754346809999207</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.06220098566981</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.59565556974933</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>2.004757114632908</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.654557673925361</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2749562137535903</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.4207931532920252</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14,97%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,03%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,8%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 2,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 2,53</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 4,15</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 7,28</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 48,18</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-19,03; 59,99</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 25,24</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 29,03</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.037786160065934</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.789893287949859</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7840482333813098</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.87514687098342</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.2462109631730376</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.304040791560436</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.041486128692766</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1455478340098711</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.368369293981667</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8100765890493679</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.722797328341024</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.6350593314303477</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.1410949691297998</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1153505522063841</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1284428099351439</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.0220739060324812</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.71092276767402</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.289922590181146</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.057260806736005</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.369747657702589</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.8166033637424814</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9099844525325892</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2284476487571654</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3040212079355097</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
